--- a/copilot-python-excel-text-transformation-demo.xlsx
+++ b/copilot-python-excel-text-transformation-demo.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeMount\Documents\GitHub\blog-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7079AF87-FB14-4663-BDB0-50AFF5E1D644}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAE931AA-8424-41C2-B909-0225EBF6E3BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="18915" windowHeight="12676" xr2:uid="{63CEBFA1-29C0-4AF3-ACEA-1319495CDEB3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Analysis1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,8 +36,288 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="2">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <futureMetadata name="XLRICHVALUE" count="10">
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="2"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="3"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="6"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="9"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="12"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="15"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="18"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="21"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="25"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="29"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+  <valueMetadata count="10">
+    <bk>
+      <rc t="2" v="0"/>
+    </bk>
+    <bk>
+      <rc t="2" v="1"/>
+    </bk>
+    <bk>
+      <rc t="2" v="2"/>
+    </bk>
+    <bk>
+      <rc t="2" v="3"/>
+    </bk>
+    <bk>
+      <rc t="2" v="4"/>
+    </bk>
+    <bk>
+      <rc t="2" v="5"/>
+    </bk>
+    <bk>
+      <rc t="2" v="6"/>
+    </bk>
+    <bk>
+      <rc t="2" v="7"/>
+    </bk>
+    <bk>
+      <rc t="2" v="8"/>
+    </bk>
+    <bk>
+      <rc t="2" v="9"/>
+    </bk>
+  </valueMetadata>
+</metadata>
+</file>
+
+<file path=xl/python.xml><?xml version="1.0" encoding="utf-8"?>
+<python xmlns="http://schemas.microsoft.com/office/spreadsheetml/2023/python">
+  <environmentDefinition id="{882DD1B0-6546-4DFA-8A08-902A380B44EA}">
+    <initialization userModified="1">
+      <code xml:space="preserve">import numpy as np
+import pandas as pd
+import matplotlib.pyplot as plt
+import seaborn as sns
+import statsmodels as sm
+import excel
+import warnings
+warnings.simplefilter('ignore')
+excel.set_xl_scalar_conversion(excel.convert_to_scalar)
+excel.set_xl_array_conversion(excel.convert_to_dataframe)
+</code>
+    </initialization>
+  </environmentDefinition>
+  <pythonScripts>
+    <pythonScript>
+      <code>reviews_df=xl(%P2%, headers=True)</code>
+    </pythonScript>
+    <pythonScript>
+      <code>correct_words_df=xl(%P2%, headers=True)</code>
+    </pythonScript>
+    <pythonScript>
+      <code>#Correct spelling errors in customer feedback using TheFuzz and correct_words list
+from thefuzz import fuzz
+import re
+# Prepare the list of correct words
+correct_words = correct_words_df['correct_words'].str.lower().tolist()
+def correct_spelling(text):
+    # Tokenize the text into words, keeping punctuation
+    words = re.findall(r"\w+|[\W_]", text)
+    corrected = []
+    for word in words:
+        # Only attempt to correct alphabetic words
+        if word.isalpha():
+            word_lower = word.lower()
+            # Find the best match in correct_words
+            scores = [fuzz.ratio(word_lower, cw) for cw in correct_words]
+            max_score = max(scores)
+            if max_score &gt; 80:
+                best_match = correct_words[scores.index(max_score)]
+                # Preserve original casing
+                if word.istitle():
+                    best_match = best_match.title()
+                elif word.isupper():
+                    best_match = best_match.upper()
+                corrected.append(best_match)
+            else:
+                corrected.append(word)
+        else:
+            corrected.append(word)
+    return ''.join([w if re.match(r"[\w]", w) else w for w in corrected])
+# Apply the correction to the feedback column
+reviews_df['corrected_feedback'] = reviews_df['Customer_Feedback'].apply(correct_spelling)
+# Show the updated DataFrame
+reviews_df[['Customer_Feedback', 'corrected_feedback']]</code>
+    </pythonScript>
+    <pythonScript>
+      <code>#Sentiment analysis for customer feedback
+from nltk.sentiment import SentimentIntensityAnalyzer
+import nltk
+nltk.download('vader_lexicon')
+sia = SentimentIntensityAnalyzer()
+def classify_sentiment(text):
+    score = sia.polarity_scores(text)['compound']
+    if score &gt;= 0.05:
+        return 'positive'
+    elif score &lt;= -0.05:
+        return 'negative'
+    else:
+        return 'neutral'
+reviews_df['sentiment'] = reviews_df['Customer_Feedback'].apply(classify_sentiment)
+reviews_df[['Customer_Feedback', 'sentiment']]</code>
+    </pythonScript>
+    <pythonScript>
+      <code>#Sentiment analysis on corrected feedback
+# Perform sentiment analysis on the corrected_feedback column
+reviews_df['sentiment_corrected'] = reviews_df['corrected_feedback'].apply(classify_sentiment)
+reviews_df[['corrected_feedback', 'sentiment_corrected']]</code>
+    </pythonScript>
+    <pythonScript>
+      <code>#Extract keywords from corrected feedback
+# Extract keywords from corrected_feedback by removing stopwords
+from nltk.corpus import stopwords
+nltk.download('stopwords')
+stop_words = set(stopwords.words('english'))
+def extract_keywords(text):
+    words = re.findall(r'\b\w+\b', text.lower())
+    keywords = [word for word in words if word not in stop_words]
+    return ' '.join(keywords)
+reviews_df['keywords'] = reviews_df['corrected_feedback'].apply(extract_keywords)
+reviews_df[['corrected_feedback', 'keywords']]</code>
+    </pythonScript>
+    <pythonScript>
+      <code>#Extract keywords from corrected_feedback separated by comma
+# Extract keywords from corrected_feedback by removing stopwords and separate by comma
+from nltk.corpus import stopwords
+stop_words = set(stopwords.words('english'))
+def extract_keywords_comma(text):
+    words = re.findall(r'\b\w+\b', text.lower())
+    keywords = [word for word in words if word not in stop_words]
+    return ', '.join(keywords)
+reviews_df['keywords'] = reviews_df['corrected_feedback'].apply(extract_keywords_comma)
+reviews_df[['corrected_feedback', 'keywords']]</code>
+    </pythonScript>
+    <pythonScript>
+      <code>#Word cloud of all feedback text (excluding stopwords)
+from wordcloud import WordCloud
+plt.rcParams['font.family'] = ['Meiryo','Batang','TH SarabunPSK','SimHei','DejaVu Sans']
+# Combine all corrected feedback into one string
+total_text = ' '.join(reviews_df['corrected_feedback'].astype(str))
+# Remove stopwords
+words = re.findall(r'\b\w+\b', total_text.lower())
+filtered_words = [word for word in words if word not in stop_words]
+filtered_text = ' '.join(filtered_words)
+# Generate word cloud
+wordcloud = WordCloud(width=800, height=400, background_color='white').generate(filtered_text)
+# Plot the word cloud
+fig, ax = plt.subplots(figsize=(10, 5))
+ax.imshow(wordcloud, interpolation='bilinear')
+ax.axis('off')
+ax.set_title('Word Cloud of Customer Feedback (Excluding Stopwords)')
+plt.show()</code>
+    </pythonScript>
+    <pythonScript>
+      <code>#Bar plot of most common words in feedback text
+# Bar plot of most common words in feedback text (excluding stopwords)
+from collections import Counter
+plt.rcParams['font.family'] = ['Meiryo','Batang','TH SarabunPSK','SimHei','DejaVu Sans']
+# Get all words from corrected_feedback, remove stopwords
+all_words = []
+for text in reviews_df['corrected_feedback']:
+    words = re.findall(r'\b\w+\b', text.lower())
+    all_words.extend([word for word in words if word not in stop_words])
+# Count word frequencies
+word_counts = Counter(all_words)
+most_common = word_counts.most_common(10)
+words, counts = zip(*most_common)
+# Plot
+fig, ax = plt.subplots(figsize=(8, 5))
+sns.barplot(x=list(counts), y=list(words), ax=ax, palette='viridis')
+ax.set_xlabel('Frequency')
+ax.set_ylabel('Word')
+ax.set_title('Top 10 Most Common Words in Feedback (Excluding Stopwords)')
+plt.tight_layout()
+plt.show()</code>
+    </pythonScript>
+  </pythonScripts>
+</python>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
   <si>
     <t>Comment_ID</t>
   </si>
@@ -72,15 +353,96 @@
   </si>
   <si>
     <t>Amazing produt, love it!</t>
+  </si>
+  <si>
+    <t>correct_words</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>product</t>
+  </si>
+  <si>
+    <t>satisfied</t>
+  </si>
+  <si>
+    <t>recommend</t>
+  </si>
+  <si>
+    <t>awesome</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>Analysis Sheet</t>
+  </si>
+  <si>
+    <t>This sheet will include all the Python formulas generated by Copilot.</t>
+  </si>
+  <si>
+    <t>Load data from Sheet1, reviews</t>
+  </si>
+  <si>
+    <t>Preview</t>
+  </si>
+  <si>
+    <t>Load data from Sheet1, correct_words</t>
+  </si>
+  <si>
+    <t>Correct spelling errors in customer feedback using TheFuzz and correct_words list</t>
+  </si>
+  <si>
+    <t>Sentiment analysis for customer feedback</t>
+  </si>
+  <si>
+    <t>Sentiment analysis on corrected feedback</t>
+  </si>
+  <si>
+    <t>Extract keywords from corrected feedback</t>
+  </si>
+  <si>
+    <t>Extract keywords from corrected_feedback separated by comma</t>
+  </si>
+  <si>
+    <t>Word cloud of all feedback text (excluding stopwords)</t>
+  </si>
+  <si>
+    <t>Bar plot of most common words in feedback text</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="18"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <color rgb="FF156082"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF156082"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
@@ -107,8 +469,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -126,12 +491,710 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>295274</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>815893</xdr:colOff>
+      <xdr:row>136</xdr:row>
+      <xdr:rowOff>295274</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" title="Word cloud of all feedback text (excluding stopwords)">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8382E769-CF3A-AD49-6933-46700ECFDD5E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+          <a:extLst>
+            <a:ext uri="{53484399-7A02-498B-ADA4-41CD10E50FAC}">
+              <aif:imageFormula xmlns:aif="http://schemas.microsoft.com/office/drawing/2022/imageformula" formula="Analysis1!A121"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="35837812"/>
+          <a:ext cx="8740693" cy="4724400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>140</xdr:row>
+      <xdr:rowOff>280986</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>682690</xdr:colOff>
+      <xdr:row>156</xdr:row>
+      <xdr:rowOff>280986</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2" title="Bar plot of most common words in feedback text">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{987C71FB-93B1-E1D5-56FA-49762577E8F3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+          <a:extLst>
+            <a:ext uri="{53484399-7A02-498B-ADA4-41CD10E50FAC}">
+              <aif:imageFormula xmlns:aif="http://schemas.microsoft.com/office/drawing/2022/imageformula" formula="Analysis1!A141"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="41729024"/>
+          <a:ext cx="7616890" cy="4724400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
+<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <global>
+    <keyFlags>
+      <key name="_Self">
+        <flag name="ExcludeFromFile" value="1"/>
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_DisplayString">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Flags">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Format">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_SubLabel">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Attribution">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Icon">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Display">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_CanonicalPropertyNames">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_ClassificationId">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+    </keyFlags>
+  </global>
+</rvTypesInfo>
+</file>
+
+<file path=xl/richData/rdarray.xml><?xml version="1.0" encoding="utf-8"?>
+<arrayData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="9">
+  <a r="11" c="3">
+    <v t="s"/>
+    <v t="s">Comment_ID</v>
+    <v t="s">Customer_Feedback</v>
+    <v>0</v>
+    <v>1</v>
+    <v t="s">Great product, really satisfied!</v>
+    <v>1</v>
+    <v>2</v>
+    <v t="s">Grate product, very happy with purchase.</v>
+    <v>2</v>
+    <v>3</v>
+    <v t="s">The item was okay, but delivery was slow.</v>
+    <v>3</v>
+    <v>4</v>
+    <v t="s">Awesome produt, super fast shipping!</v>
+    <v>4</v>
+    <v>5</v>
+    <v t="s">Poor quality, not satisfyed at all.</v>
+    <v>5</v>
+    <v>6</v>
+    <v t="s">Excellent product, will buy again.</v>
+    <v>6</v>
+    <v>7</v>
+    <v t="s">Product was good, but packaging was bad.</v>
+    <v>7</v>
+    <v>8</v>
+    <v t="s">Gret product, highly recomend!</v>
+    <v>8</v>
+    <v>9</v>
+    <v t="s">Decent item, but could be better.</v>
+    <v>9</v>
+    <v>10</v>
+    <v t="s">Amazing produt, love it!</v>
+  </a>
+  <a r="7" c="2">
+    <v t="s"/>
+    <v t="s">correct_words</v>
+    <v>0</v>
+    <v t="s">great</v>
+    <v>1</v>
+    <v t="s">product</v>
+    <v>2</v>
+    <v t="s">satisfied</v>
+    <v>3</v>
+    <v t="s">recommend</v>
+    <v>4</v>
+    <v t="s">awesome</v>
+    <v>5</v>
+    <v t="s">amazing</v>
+  </a>
+  <a r="11" c="3">
+    <v t="s"/>
+    <v t="s">Customer_Feedback</v>
+    <v t="s">corrected_feedback</v>
+    <v>0</v>
+    <v t="s">Great product, really satisfied!</v>
+    <v t="s">Great product, really satisfied!</v>
+    <v>1</v>
+    <v t="s">Grate product, very happy with purchase.</v>
+    <v t="s">Grate product, very happy with purchase.</v>
+    <v>2</v>
+    <v t="s">The item was okay, but delivery was slow.</v>
+    <v t="s">The item was okay, but delivery was slow.</v>
+    <v>3</v>
+    <v t="s">Awesome produt, super fast shipping!</v>
+    <v t="s">Awesome product, super fast shipping!</v>
+    <v>4</v>
+    <v t="s">Poor quality, not satisfyed at all.</v>
+    <v t="s">Poor quality, not satisfied at all.</v>
+    <v>5</v>
+    <v t="s">Excellent product, will buy again.</v>
+    <v t="s">Excellent product, will buy again.</v>
+    <v>6</v>
+    <v t="s">Product was good, but packaging was bad.</v>
+    <v t="s">Product was good, but packaging was bad.</v>
+    <v>7</v>
+    <v t="s">Gret product, highly recomend!</v>
+    <v t="s">Great product, highly recommend!</v>
+    <v>8</v>
+    <v t="s">Decent item, but could be better.</v>
+    <v t="s">Decent item, but could be better.</v>
+    <v>9</v>
+    <v t="s">Amazing produt, love it!</v>
+    <v t="s">Amazing product, love it!</v>
+  </a>
+  <a r="11" c="3">
+    <v t="s"/>
+    <v t="s">Customer_Feedback</v>
+    <v t="s">sentiment</v>
+    <v>0</v>
+    <v t="s">Great product, really satisfied!</v>
+    <v t="s">positive</v>
+    <v>1</v>
+    <v t="s">Grate product, very happy with purchase.</v>
+    <v t="s">positive</v>
+    <v>2</v>
+    <v t="s">The item was okay, but delivery was slow.</v>
+    <v t="s">positive</v>
+    <v>3</v>
+    <v t="s">Awesome produt, super fast shipping!</v>
+    <v t="s">positive</v>
+    <v>4</v>
+    <v t="s">Poor quality, not satisfyed at all.</v>
+    <v t="s">negative</v>
+    <v>5</v>
+    <v t="s">Excellent product, will buy again.</v>
+    <v t="s">positive</v>
+    <v>6</v>
+    <v t="s">Product was good, but packaging was bad.</v>
+    <v t="s">negative</v>
+    <v>7</v>
+    <v t="s">Gret product, highly recomend!</v>
+    <v t="s">neutral</v>
+    <v>8</v>
+    <v t="s">Decent item, but could be better.</v>
+    <v t="s">positive</v>
+    <v>9</v>
+    <v t="s">Amazing produt, love it!</v>
+    <v t="s">positive</v>
+  </a>
+  <a r="11" c="3">
+    <v t="s"/>
+    <v t="s">corrected_feedback</v>
+    <v t="s">sentiment_corrected</v>
+    <v>0</v>
+    <v t="s">Great product, really satisfied!</v>
+    <v t="s">positive</v>
+    <v>1</v>
+    <v t="s">Grate product, very happy with purchase.</v>
+    <v t="s">positive</v>
+    <v>2</v>
+    <v t="s">The item was okay, but delivery was slow.</v>
+    <v t="s">positive</v>
+    <v>3</v>
+    <v t="s">Awesome product, super fast shipping!</v>
+    <v t="s">positive</v>
+    <v>4</v>
+    <v t="s">Poor quality, not satisfied at all.</v>
+    <v t="s">negative</v>
+    <v>5</v>
+    <v t="s">Excellent product, will buy again.</v>
+    <v t="s">positive</v>
+    <v>6</v>
+    <v t="s">Product was good, but packaging was bad.</v>
+    <v t="s">negative</v>
+    <v>7</v>
+    <v t="s">Great product, highly recommend!</v>
+    <v t="s">positive</v>
+    <v>8</v>
+    <v t="s">Decent item, but could be better.</v>
+    <v t="s">positive</v>
+    <v>9</v>
+    <v t="s">Amazing product, love it!</v>
+    <v t="s">positive</v>
+  </a>
+  <a r="11" c="3">
+    <v t="s"/>
+    <v t="s">corrected_feedback</v>
+    <v t="s">keywords</v>
+    <v>0</v>
+    <v t="s">Great product, really satisfied!</v>
+    <v t="s">great product really satisfied</v>
+    <v>1</v>
+    <v t="s">Grate product, very happy with purchase.</v>
+    <v t="s">grate product happy purchase</v>
+    <v>2</v>
+    <v t="s">The item was okay, but delivery was slow.</v>
+    <v t="s">item okay delivery slow</v>
+    <v>3</v>
+    <v t="s">Awesome product, super fast shipping!</v>
+    <v t="s">awesome product super fast shipping</v>
+    <v>4</v>
+    <v t="s">Poor quality, not satisfied at all.</v>
+    <v t="s">poor quality satisfied</v>
+    <v>5</v>
+    <v t="s">Excellent product, will buy again.</v>
+    <v t="s">excellent product buy</v>
+    <v>6</v>
+    <v t="s">Product was good, but packaging was bad.</v>
+    <v t="s">product good packaging bad</v>
+    <v>7</v>
+    <v t="s">Great product, highly recommend!</v>
+    <v t="s">great product highly recommend</v>
+    <v>8</v>
+    <v t="s">Decent item, but could be better.</v>
+    <v t="s">decent item could better</v>
+    <v>9</v>
+    <v t="s">Amazing product, love it!</v>
+    <v t="s">amazing product love</v>
+  </a>
+  <a r="11" c="3">
+    <v t="s"/>
+    <v t="s">corrected_feedback</v>
+    <v t="s">keywords</v>
+    <v>0</v>
+    <v t="s">Great product, really satisfied!</v>
+    <v t="s">great, product, really, satisfied</v>
+    <v>1</v>
+    <v t="s">Grate product, very happy with purchase.</v>
+    <v t="s">grate, product, happy, purchase</v>
+    <v>2</v>
+    <v t="s">The item was okay, but delivery was slow.</v>
+    <v t="s">item, okay, delivery, slow</v>
+    <v>3</v>
+    <v t="s">Awesome product, super fast shipping!</v>
+    <v t="s">awesome, product, super, fast, shipping</v>
+    <v>4</v>
+    <v t="s">Poor quality, not satisfied at all.</v>
+    <v t="s">poor, quality, satisfied</v>
+    <v>5</v>
+    <v t="s">Excellent product, will buy again.</v>
+    <v t="s">excellent, product, buy</v>
+    <v>6</v>
+    <v t="s">Product was good, but packaging was bad.</v>
+    <v t="s">product, good, packaging, bad</v>
+    <v>7</v>
+    <v t="s">Great product, highly recommend!</v>
+    <v t="s">great, product, highly, recommend</v>
+    <v>8</v>
+    <v t="s">Decent item, but could be better.</v>
+    <v t="s">decent, item, could, better</v>
+    <v>9</v>
+    <v t="s">Amazing product, love it!</v>
+    <v t="s">amazing, product, love</v>
+  </a>
+  <a r="2">
+    <v>790</v>
+    <v>427</v>
+  </a>
+  <a r="2">
+    <v>790</v>
+    <v>490</v>
+  </a>
+</arrayData>
+</file>
+
+<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="30">
+  <rv s="0">
+    <v>0</v>
+  </rv>
+  <rv s="1">
+    <v>DataFrame</v>
+    <v>1</v>
+    <v>0</v>
+  </rv>
+  <rv s="2">
+    <v>&lt;class 'pandas.core.frame.DataFrame'&gt;</v>
+    <v>DataFrame</v>
+    <v xml:space="preserve">   Comment_ID                          Customer_Feedback
+0           1           Great product, really satisfied!
+1           2   Grate product, very happy with purchase.
+2           3  The item was okay, but delivery was slow.
+3           4       Awes...</v>
+    <v>1</v>
+    <v>2</v>
+  </rv>
+  <rv s="3">
+    <v>14</v>
+  </rv>
+  <rv s="0">
+    <v>1</v>
+  </rv>
+  <rv s="1">
+    <v>DataFrame</v>
+    <v>4</v>
+    <v>4</v>
+  </rv>
+  <rv s="2">
+    <v>&lt;class 'pandas.core.frame.DataFrame'&gt;</v>
+    <v>DataFrame</v>
+    <v xml:space="preserve">  correct_words
+0         great
+1       product
+2     satisfied
+3     recommend
+4       awesome
+5       amazing</v>
+    <v>5</v>
+    <v>2</v>
+  </rv>
+  <rv s="0">
+    <v>2</v>
+  </rv>
+  <rv s="1">
+    <v>DataFrame</v>
+    <v>1</v>
+    <v>7</v>
+  </rv>
+  <rv s="2">
+    <v>&lt;class 'pandas.core.frame.DataFrame'&gt;</v>
+    <v>DataFrame</v>
+    <v xml:space="preserve">                           Customer_Feedback  \
+0           Great product, really satisfied!   
+1   Grate product, very happy with purchase.   
+2  The item was okay, but delivery was slow.   
+3       Awesome produt, super fast shipping!   
+4        Poo...</v>
+    <v>8</v>
+    <v>2</v>
+  </rv>
+  <rv s="0">
+    <v>3</v>
+  </rv>
+  <rv s="1">
+    <v>DataFrame</v>
+    <v>1</v>
+    <v>10</v>
+  </rv>
+  <rv s="2">
+    <v>&lt;class 'pandas.core.frame.DataFrame'&gt;</v>
+    <v>DataFrame</v>
+    <v xml:space="preserve">                           Customer_Feedback sentiment
+0           Great product, really satisfied!  positive
+1   Grate product, very happy with purchase.  positive
+2  The item was okay, but delivery was slow.  positive
+3       Awesome produt, super fa...</v>
+    <v>11</v>
+    <v>2</v>
+  </rv>
+  <rv s="0">
+    <v>4</v>
+  </rv>
+  <rv s="1">
+    <v>DataFrame</v>
+    <v>1</v>
+    <v>13</v>
+  </rv>
+  <rv s="2">
+    <v>&lt;class 'pandas.core.frame.DataFrame'&gt;</v>
+    <v>DataFrame</v>
+    <v xml:space="preserve">                          corrected_feedback sentiment_corrected
+0           Great product, really satisfied!            positive
+1   Grate product, very happy with purchase.            positive
+2  The item was okay, but delivery was slow.            p...</v>
+    <v>14</v>
+    <v>2</v>
+  </rv>
+  <rv s="0">
+    <v>5</v>
+  </rv>
+  <rv s="1">
+    <v>DataFrame</v>
+    <v>1</v>
+    <v>16</v>
+  </rv>
+  <rv s="2">
+    <v>&lt;class 'pandas.core.frame.DataFrame'&gt;</v>
+    <v>DataFrame</v>
+    <v xml:space="preserve">                          corrected_feedback  \
+0           Great product, really satisfied!   
+1   Grate product, very happy with purchase.   
+2  The item was okay, but delivery was slow.   
+3      Awesome product, super fast shipping!   
+4        Poo...</v>
+    <v>17</v>
+    <v>2</v>
+  </rv>
+  <rv s="0">
+    <v>6</v>
+  </rv>
+  <rv s="1">
+    <v>DataFrame</v>
+    <v>1</v>
+    <v>19</v>
+  </rv>
+  <rv s="2">
+    <v>&lt;class 'pandas.core.frame.DataFrame'&gt;</v>
+    <v>DataFrame</v>
+    <v xml:space="preserve">                          corrected_feedback  \
+0           Great product, really satisfied!   
+1   Grate product, very happy with purchase.   
+2  The item was okay, but delivery was slow.   
+3      Awesome product, super fast shipping!   
+4        Poo...</v>
+    <v>20</v>
+    <v>2</v>
+  </rv>
+  <rv s="4">
+    <v>0</v>
+    <v>9</v>
+  </rv>
+  <rv s="0">
+    <v>7</v>
+  </rv>
+  <rv s="5">
+    <v>Image</v>
+    <v>5</v>
+    <v>22</v>
+    <v>23</v>
+  </rv>
+  <rv s="2">
+    <v>&lt;class 'PIL.PngImagePlugin.PngImageFile'&gt;</v>
+    <v>PngImageFile</v>
+    <v>&lt;PIL.PngImagePlugin.PngImageFile image mode=RGBA size=790x427 at 0x7FBE0E1BDB80&gt;</v>
+    <v>24</v>
+    <v>2</v>
+  </rv>
+  <rv s="4">
+    <v>1</v>
+    <v>9</v>
+  </rv>
+  <rv s="0">
+    <v>8</v>
+  </rv>
+  <rv s="5">
+    <v>Image</v>
+    <v>5</v>
+    <v>26</v>
+    <v>27</v>
+  </rv>
+  <rv s="2">
+    <v>&lt;class 'PIL.PngImagePlugin.PngImageFile'&gt;</v>
+    <v>PngImageFile</v>
+    <v>&lt;PIL.PngImagePlugin.PngImageFile image mode=RGBA size=790x490 at 0x7FBE0E515EE0&gt;</v>
+    <v>28</v>
+    <v>2</v>
+  </rv>
+</rvData>
+</file>
+
+<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="6">
+  <s t="_array">
+    <k n="array" t="a"/>
+  </s>
+  <s t="_entity">
+    <k n="_DisplayString" t="s"/>
+    <k n="_ViewInfo" t="spb"/>
+    <k n="arrayPreview" t="r"/>
+  </s>
+  <s t="_python">
+    <k n="Python_type" t="s"/>
+    <k n="Python_typeName" t="s"/>
+    <k n="Python_str" t="s"/>
+    <k n="preview" t="r"/>
+    <k n="_Provider" t="spb"/>
+  </s>
+  <s t="_error">
+    <k n="errorType" t="i"/>
+  </s>
+  <s t="_localImage">
+    <k n="_rvRel:LocalImageIdentifier" t="i"/>
+    <k n="CalcOrigin" t="i"/>
+  </s>
+  <s t="_entity">
+    <k n="_DisplayString" t="s"/>
+    <k n="_Format" t="spb"/>
+    <k n="image" t="r"/>
+    <k n="size" t="r"/>
+  </s>
+</rvStructures>
+</file>
+
+<file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
+<supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
+  <spbData count="6">
+    <spb s="0">
+      <v>10</v>
+      <v>2</v>
+      <v>DataFrame</v>
+      <v>arrayPreview</v>
+      <v>1</v>
+    </spb>
+    <spb s="1">
+      <v>0</v>
+    </spb>
+    <spb s="2">
+      <v>https://www.anaconda.com/excel</v>
+      <v>https://res.cdn.office.net/officepysvc/prod-preview/anacondalogo.png</v>
+      <v>Python provided by Anaconda</v>
+    </spb>
+    <spb s="0">
+      <v>6</v>
+      <v>1</v>
+      <v>DataFrame</v>
+      <v>arrayPreview</v>
+      <v>1</v>
+    </spb>
+    <spb s="1">
+      <v>3</v>
+    </spb>
+    <spb s="3">
+      <v>1</v>
+    </spb>
+  </spbData>
+</supportingPropertyBags>
+</file>
+
+<file path=xl/richData/rdsupportingpropertybagstructure.xml><?xml version="1.0" encoding="utf-8"?>
+<spbStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="4">
+  <s>
+    <k n="drw" t="i"/>
+    <k n="dcol" t="i"/>
+    <k n="name" t="s"/>
+    <k n="array" t="s"/>
+    <k n="headers" t="b"/>
+  </s>
+  <s>
+    <k n="ArrayCardInfo" t="spb"/>
+  </s>
+  <s>
+    <k n="link" t="s"/>
+    <k n="logo" t="s"/>
+    <k n="name" t="s"/>
+  </s>
+  <s>
+    <k n="image" t="i"/>
+  </s>
+</spbStructures>
+</file>
+
+<file path=xl/richData/richStyles.xml><?xml version="1.0" encoding="utf-8"?>
+<richStyleSheet xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <richProperties>
+    <rPr n="IsHeroField" t="b"/>
+  </richProperties>
+  <richStyles>
+    <rSty>
+      <rpv i="0">1</rpv>
+    </rSty>
+  </richStyles>
+</richStyleSheet>
+</file>
+
+<file path=xl/richData/richValueRel.xml><?xml version="1.0" encoding="utf-8"?>
+<richValueRels xmlns="http://schemas.microsoft.com/office/spreadsheetml/2022/richvaluerel" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rel r:id="rId1"/>
+  <rel r:id="rId2"/>
+</richValueRels>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8A75E574-D899-4403-BC38-2B77924CEB46}" name="reviews" displayName="reviews" ref="A1:B11" totalsRowShown="0">
   <autoFilter ref="A1:B11" xr:uid="{8A75E574-D899-4403-BC38-2B77924CEB46}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{FDA55250-37C2-423F-9279-727388393004}" name="Comment_ID"/>
     <tableColumn id="2" xr3:uid="{F27922D2-B015-4F67-9716-C21F4C70E5EA}" name="Customer_Feedback"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DA7ED07D-75E6-4D79-B7CD-F6ED0BF5ABAB}" name="correct_words" displayName="correct_words" ref="E1:E7" totalsRowShown="0">
+  <autoFilter ref="E1:E7" xr:uid="{DA7ED07D-75E6-4D79-B7CD-F6ED0BF5ABAB}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{A33651FE-F42F-47E6-A562-C3E8C9498E1D}" name="correct_words"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -454,75 +1517,97 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C414C27F-115D-4D3D-B495-CDD8ADDE859B}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B11"/>
+      <selection activeCell="E7" sqref="E1:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.7"/>
   <cols>
     <col min="1" max="1" width="12.4140625" customWidth="1"/>
-    <col min="2" max="2" width="18.58203125" customWidth="1"/>
+    <col min="2" max="2" width="34.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.4140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="E7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A8">
         <v>7</v>
       </c>
@@ -530,7 +1615,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.7">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A9">
         <v>8</v>
       </c>
@@ -538,7 +1623,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.7">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A10">
         <v>9</v>
       </c>
@@ -546,7 +1631,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.7">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A11">
         <v>10</v>
       </c>
@@ -556,8 +1641,1167 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
+  <tableParts count="2">
     <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CFEA427-6CE2-457D-834F-63C03EF7E51C}">
+  <dimension ref="A1:C141"/>
+  <sheetViews>
+    <sheetView topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.7"/>
+  <sheetData>
+    <row r="1" spans="1:3" ht="31.9" x14ac:dyDescent="1">
+      <c r="A1" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A5" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A6" t="e" cm="1" vm="1">
+        <f t="array" aca="1" ref="A6" ca="1">_xlfn._xlws.PY(0,1,reviews[[#Headers],[#Data]])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A8" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A9" t="str" cm="1">
+        <f t="array" aca="1" ref="A9:C19" ca="1">IFERROR(_FV(A6,"arrayPreview"),_xlfn._DF_Python_str(A6))</f>
+        <v/>
+      </c>
+      <c r="B9" t="str">
+        <f ca="1"/>
+        <v>Comment_ID</v>
+      </c>
+      <c r="C9" t="str">
+        <f ca="1"/>
+        <v>Customer_Feedback</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A10">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="C10" t="str">
+        <f ca="1"/>
+        <v>Great product, really satisfied!</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A11">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <f ca="1"/>
+        <v>2</v>
+      </c>
+      <c r="C11" t="str">
+        <f ca="1"/>
+        <v>Grate product, very happy with purchase.</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A12">
+        <f ca="1"/>
+        <v>2</v>
+      </c>
+      <c r="B12">
+        <f ca="1"/>
+        <v>3</v>
+      </c>
+      <c r="C12" t="str">
+        <f ca="1"/>
+        <v>The item was okay, but delivery was slow.</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A13">
+        <f ca="1"/>
+        <v>3</v>
+      </c>
+      <c r="B13">
+        <f ca="1"/>
+        <v>4</v>
+      </c>
+      <c r="C13" t="str">
+        <f ca="1"/>
+        <v>Awesome produt, super fast shipping!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A14">
+        <f ca="1"/>
+        <v>4</v>
+      </c>
+      <c r="B14">
+        <f ca="1"/>
+        <v>5</v>
+      </c>
+      <c r="C14" t="str">
+        <f ca="1"/>
+        <v>Poor quality, not satisfyed at all.</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A15">
+        <f ca="1"/>
+        <v>5</v>
+      </c>
+      <c r="B15">
+        <f ca="1"/>
+        <v>6</v>
+      </c>
+      <c r="C15" t="str">
+        <f ca="1"/>
+        <v>Excellent product, will buy again.</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A16">
+        <f ca="1"/>
+        <v>6</v>
+      </c>
+      <c r="B16">
+        <f ca="1"/>
+        <v>7</v>
+      </c>
+      <c r="C16" t="str">
+        <f ca="1"/>
+        <v>Product was good, but packaging was bad.</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A17">
+        <f ca="1"/>
+        <v>7</v>
+      </c>
+      <c r="B17">
+        <f ca="1"/>
+        <v>8</v>
+      </c>
+      <c r="C17" t="str">
+        <f ca="1"/>
+        <v>Gret product, highly recomend!</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A18">
+        <f ca="1"/>
+        <v>8</v>
+      </c>
+      <c r="B18">
+        <f ca="1"/>
+        <v>9</v>
+      </c>
+      <c r="C18" t="str">
+        <f ca="1"/>
+        <v>Decent item, but could be better.</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A19">
+        <f ca="1"/>
+        <v>9</v>
+      </c>
+      <c r="B19">
+        <f ca="1"/>
+        <v>10</v>
+      </c>
+      <c r="C19" t="str">
+        <f ca="1"/>
+        <v>Amazing produt, love it!</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A22" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A23" t="e" cm="1" vm="3">
+        <f t="array" aca="1" ref="A23" ca="1">_xlfn._xlws.PY(1,1,correct_words[[#Headers],[#Data]])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A25" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A26" t="str" cm="1">
+        <f t="array" aca="1" ref="A26:B32" ca="1">IFERROR(_FV(A23,"arrayPreview"),_xlfn._DF_Python_str(A23))</f>
+        <v/>
+      </c>
+      <c r="B26" t="str">
+        <f ca="1"/>
+        <v>correct_words</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A27">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="B27" t="str">
+        <f ca="1"/>
+        <v>great</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A28">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="B28" t="str">
+        <f ca="1"/>
+        <v>product</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A29">
+        <f ca="1"/>
+        <v>2</v>
+      </c>
+      <c r="B29" t="str">
+        <f ca="1"/>
+        <v>satisfied</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A30">
+        <f ca="1"/>
+        <v>3</v>
+      </c>
+      <c r="B30" t="str">
+        <f ca="1"/>
+        <v>recommend</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A31">
+        <f ca="1"/>
+        <v>4</v>
+      </c>
+      <c r="B31" t="str">
+        <f ca="1"/>
+        <v>awesome</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A32">
+        <f ca="1"/>
+        <v>5</v>
+      </c>
+      <c r="B32" t="str">
+        <f ca="1"/>
+        <v>amazing</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A35" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A36" t="e" cm="1" vm="4">
+        <f t="array" aca="1" ref="A36" ca="1">_xlfn._xlws.PY(2,1)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A38" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A39" t="str" cm="1">
+        <f t="array" aca="1" ref="A39:C49" ca="1">IFERROR(_FV(A36,"arrayPreview"),_xlfn._DF_Python_str(A36))</f>
+        <v/>
+      </c>
+      <c r="B39" t="str">
+        <f ca="1"/>
+        <v>Customer_Feedback</v>
+      </c>
+      <c r="C39" t="str">
+        <f ca="1"/>
+        <v>corrected_feedback</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A40">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="B40" t="str">
+        <f ca="1"/>
+        <v>Great product, really satisfied!</v>
+      </c>
+      <c r="C40" t="str">
+        <f ca="1"/>
+        <v>Great product, really satisfied!</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A41">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="B41" t="str">
+        <f ca="1"/>
+        <v>Grate product, very happy with purchase.</v>
+      </c>
+      <c r="C41" t="str">
+        <f ca="1"/>
+        <v>Grate product, very happy with purchase.</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A42">
+        <f ca="1"/>
+        <v>2</v>
+      </c>
+      <c r="B42" t="str">
+        <f ca="1"/>
+        <v>The item was okay, but delivery was slow.</v>
+      </c>
+      <c r="C42" t="str">
+        <f ca="1"/>
+        <v>The item was okay, but delivery was slow.</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A43">
+        <f ca="1"/>
+        <v>3</v>
+      </c>
+      <c r="B43" t="str">
+        <f ca="1"/>
+        <v>Awesome produt, super fast shipping!</v>
+      </c>
+      <c r="C43" t="str">
+        <f ca="1"/>
+        <v>Awesome product, super fast shipping!</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A44">
+        <f ca="1"/>
+        <v>4</v>
+      </c>
+      <c r="B44" t="str">
+        <f ca="1"/>
+        <v>Poor quality, not satisfyed at all.</v>
+      </c>
+      <c r="C44" t="str">
+        <f ca="1"/>
+        <v>Poor quality, not satisfied at all.</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A45">
+        <f ca="1"/>
+        <v>5</v>
+      </c>
+      <c r="B45" t="str">
+        <f ca="1"/>
+        <v>Excellent product, will buy again.</v>
+      </c>
+      <c r="C45" t="str">
+        <f ca="1"/>
+        <v>Excellent product, will buy again.</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A46">
+        <f ca="1"/>
+        <v>6</v>
+      </c>
+      <c r="B46" t="str">
+        <f ca="1"/>
+        <v>Product was good, but packaging was bad.</v>
+      </c>
+      <c r="C46" t="str">
+        <f ca="1"/>
+        <v>Product was good, but packaging was bad.</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A47">
+        <f ca="1"/>
+        <v>7</v>
+      </c>
+      <c r="B47" t="str">
+        <f ca="1"/>
+        <v>Gret product, highly recomend!</v>
+      </c>
+      <c r="C47" t="str">
+        <f ca="1"/>
+        <v>Great product, highly recommend!</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A48">
+        <f ca="1"/>
+        <v>8</v>
+      </c>
+      <c r="B48" t="str">
+        <f ca="1"/>
+        <v>Decent item, but could be better.</v>
+      </c>
+      <c r="C48" t="str">
+        <f ca="1"/>
+        <v>Decent item, but could be better.</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A49">
+        <f ca="1"/>
+        <v>9</v>
+      </c>
+      <c r="B49" t="str">
+        <f ca="1"/>
+        <v>Amazing produt, love it!</v>
+      </c>
+      <c r="C49" t="str">
+        <f ca="1"/>
+        <v>Amazing product, love it!</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A52" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A53" t="e" cm="1" vm="5">
+        <f t="array" aca="1" ref="A53" ca="1">_xlfn._xlws.PY(3,1)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A55" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A56" t="str" cm="1">
+        <f t="array" aca="1" ref="A56:C66" ca="1">IFERROR(_FV(A53,"arrayPreview"),_xlfn._DF_Python_str(A53))</f>
+        <v/>
+      </c>
+      <c r="B56" t="str">
+        <f ca="1"/>
+        <v>Customer_Feedback</v>
+      </c>
+      <c r="C56" t="str">
+        <f ca="1"/>
+        <v>sentiment</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A57">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="B57" t="str">
+        <f ca="1"/>
+        <v>Great product, really satisfied!</v>
+      </c>
+      <c r="C57" t="str">
+        <f ca="1"/>
+        <v>positive</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A58">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="B58" t="str">
+        <f ca="1"/>
+        <v>Grate product, very happy with purchase.</v>
+      </c>
+      <c r="C58" t="str">
+        <f ca="1"/>
+        <v>positive</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A59">
+        <f ca="1"/>
+        <v>2</v>
+      </c>
+      <c r="B59" t="str">
+        <f ca="1"/>
+        <v>The item was okay, but delivery was slow.</v>
+      </c>
+      <c r="C59" t="str">
+        <f ca="1"/>
+        <v>positive</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A60">
+        <f ca="1"/>
+        <v>3</v>
+      </c>
+      <c r="B60" t="str">
+        <f ca="1"/>
+        <v>Awesome produt, super fast shipping!</v>
+      </c>
+      <c r="C60" t="str">
+        <f ca="1"/>
+        <v>positive</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A61">
+        <f ca="1"/>
+        <v>4</v>
+      </c>
+      <c r="B61" t="str">
+        <f ca="1"/>
+        <v>Poor quality, not satisfyed at all.</v>
+      </c>
+      <c r="C61" t="str">
+        <f ca="1"/>
+        <v>negative</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A62">
+        <f ca="1"/>
+        <v>5</v>
+      </c>
+      <c r="B62" t="str">
+        <f ca="1"/>
+        <v>Excellent product, will buy again.</v>
+      </c>
+      <c r="C62" t="str">
+        <f ca="1"/>
+        <v>positive</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A63">
+        <f ca="1"/>
+        <v>6</v>
+      </c>
+      <c r="B63" t="str">
+        <f ca="1"/>
+        <v>Product was good, but packaging was bad.</v>
+      </c>
+      <c r="C63" t="str">
+        <f ca="1"/>
+        <v>negative</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A64">
+        <f ca="1"/>
+        <v>7</v>
+      </c>
+      <c r="B64" t="str">
+        <f ca="1"/>
+        <v>Gret product, highly recomend!</v>
+      </c>
+      <c r="C64" t="str">
+        <f ca="1"/>
+        <v>neutral</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A65">
+        <f ca="1"/>
+        <v>8</v>
+      </c>
+      <c r="B65" t="str">
+        <f ca="1"/>
+        <v>Decent item, but could be better.</v>
+      </c>
+      <c r="C65" t="str">
+        <f ca="1"/>
+        <v>positive</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A66">
+        <f ca="1"/>
+        <v>9</v>
+      </c>
+      <c r="B66" t="str">
+        <f ca="1"/>
+        <v>Amazing produt, love it!</v>
+      </c>
+      <c r="C66" t="str">
+        <f ca="1"/>
+        <v>positive</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A69" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A70" t="e" cm="1" vm="6">
+        <f t="array" aca="1" ref="A70" ca="1">_xlfn._xlws.PY(4,1)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A72" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A73" t="str" cm="1">
+        <f t="array" aca="1" ref="A73:C83" ca="1">IFERROR(_FV(A70,"arrayPreview"),_xlfn._DF_Python_str(A70))</f>
+        <v/>
+      </c>
+      <c r="B73" t="str">
+        <f ca="1"/>
+        <v>corrected_feedback</v>
+      </c>
+      <c r="C73" t="str">
+        <f ca="1"/>
+        <v>sentiment_corrected</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A74">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="B74" t="str">
+        <f ca="1"/>
+        <v>Great product, really satisfied!</v>
+      </c>
+      <c r="C74" t="str">
+        <f ca="1"/>
+        <v>positive</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A75">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="B75" t="str">
+        <f ca="1"/>
+        <v>Grate product, very happy with purchase.</v>
+      </c>
+      <c r="C75" t="str">
+        <f ca="1"/>
+        <v>positive</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A76">
+        <f ca="1"/>
+        <v>2</v>
+      </c>
+      <c r="B76" t="str">
+        <f ca="1"/>
+        <v>The item was okay, but delivery was slow.</v>
+      </c>
+      <c r="C76" t="str">
+        <f ca="1"/>
+        <v>positive</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A77">
+        <f ca="1"/>
+        <v>3</v>
+      </c>
+      <c r="B77" t="str">
+        <f ca="1"/>
+        <v>Awesome product, super fast shipping!</v>
+      </c>
+      <c r="C77" t="str">
+        <f ca="1"/>
+        <v>positive</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A78">
+        <f ca="1"/>
+        <v>4</v>
+      </c>
+      <c r="B78" t="str">
+        <f ca="1"/>
+        <v>Poor quality, not satisfied at all.</v>
+      </c>
+      <c r="C78" t="str">
+        <f ca="1"/>
+        <v>negative</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A79">
+        <f ca="1"/>
+        <v>5</v>
+      </c>
+      <c r="B79" t="str">
+        <f ca="1"/>
+        <v>Excellent product, will buy again.</v>
+      </c>
+      <c r="C79" t="str">
+        <f ca="1"/>
+        <v>positive</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A80">
+        <f ca="1"/>
+        <v>6</v>
+      </c>
+      <c r="B80" t="str">
+        <f ca="1"/>
+        <v>Product was good, but packaging was bad.</v>
+      </c>
+      <c r="C80" t="str">
+        <f ca="1"/>
+        <v>negative</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A81">
+        <f ca="1"/>
+        <v>7</v>
+      </c>
+      <c r="B81" t="str">
+        <f ca="1"/>
+        <v>Great product, highly recommend!</v>
+      </c>
+      <c r="C81" t="str">
+        <f ca="1"/>
+        <v>positive</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A82">
+        <f ca="1"/>
+        <v>8</v>
+      </c>
+      <c r="B82" t="str">
+        <f ca="1"/>
+        <v>Decent item, but could be better.</v>
+      </c>
+      <c r="C82" t="str">
+        <f ca="1"/>
+        <v>positive</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A83">
+        <f ca="1"/>
+        <v>9</v>
+      </c>
+      <c r="B83" t="str">
+        <f ca="1"/>
+        <v>Amazing product, love it!</v>
+      </c>
+      <c r="C83" t="str">
+        <f ca="1"/>
+        <v>positive</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A86" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A87" t="e" cm="1" vm="7">
+        <f t="array" aca="1" ref="A87" ca="1">_xlfn._xlws.PY(5,1)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A89" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A90" t="str" cm="1">
+        <f t="array" aca="1" ref="A90:C100" ca="1">IFERROR(_FV(A87,"arrayPreview"),_xlfn._DF_Python_str(A87))</f>
+        <v/>
+      </c>
+      <c r="B90" t="str">
+        <f ca="1"/>
+        <v>corrected_feedback</v>
+      </c>
+      <c r="C90" t="str">
+        <f ca="1"/>
+        <v>keywords</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A91">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="B91" t="str">
+        <f ca="1"/>
+        <v>Great product, really satisfied!</v>
+      </c>
+      <c r="C91" t="str">
+        <f ca="1"/>
+        <v>great product really satisfied</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A92">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="B92" t="str">
+        <f ca="1"/>
+        <v>Grate product, very happy with purchase.</v>
+      </c>
+      <c r="C92" t="str">
+        <f ca="1"/>
+        <v>grate product happy purchase</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A93">
+        <f ca="1"/>
+        <v>2</v>
+      </c>
+      <c r="B93" t="str">
+        <f ca="1"/>
+        <v>The item was okay, but delivery was slow.</v>
+      </c>
+      <c r="C93" t="str">
+        <f ca="1"/>
+        <v>item okay delivery slow</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A94">
+        <f ca="1"/>
+        <v>3</v>
+      </c>
+      <c r="B94" t="str">
+        <f ca="1"/>
+        <v>Awesome product, super fast shipping!</v>
+      </c>
+      <c r="C94" t="str">
+        <f ca="1"/>
+        <v>awesome product super fast shipping</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A95">
+        <f ca="1"/>
+        <v>4</v>
+      </c>
+      <c r="B95" t="str">
+        <f ca="1"/>
+        <v>Poor quality, not satisfied at all.</v>
+      </c>
+      <c r="C95" t="str">
+        <f ca="1"/>
+        <v>poor quality satisfied</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A96">
+        <f ca="1"/>
+        <v>5</v>
+      </c>
+      <c r="B96" t="str">
+        <f ca="1"/>
+        <v>Excellent product, will buy again.</v>
+      </c>
+      <c r="C96" t="str">
+        <f ca="1"/>
+        <v>excellent product buy</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A97">
+        <f ca="1"/>
+        <v>6</v>
+      </c>
+      <c r="B97" t="str">
+        <f ca="1"/>
+        <v>Product was good, but packaging was bad.</v>
+      </c>
+      <c r="C97" t="str">
+        <f ca="1"/>
+        <v>product good packaging bad</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A98">
+        <f ca="1"/>
+        <v>7</v>
+      </c>
+      <c r="B98" t="str">
+        <f ca="1"/>
+        <v>Great product, highly recommend!</v>
+      </c>
+      <c r="C98" t="str">
+        <f ca="1"/>
+        <v>great product highly recommend</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A99">
+        <f ca="1"/>
+        <v>8</v>
+      </c>
+      <c r="B99" t="str">
+        <f ca="1"/>
+        <v>Decent item, but could be better.</v>
+      </c>
+      <c r="C99" t="str">
+        <f ca="1"/>
+        <v>decent item could better</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A100">
+        <f ca="1"/>
+        <v>9</v>
+      </c>
+      <c r="B100" t="str">
+        <f ca="1"/>
+        <v>Amazing product, love it!</v>
+      </c>
+      <c r="C100" t="str">
+        <f ca="1"/>
+        <v>amazing product love</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A103" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A104" t="e" cm="1" vm="8">
+        <f t="array" aca="1" ref="A104" ca="1">_xlfn._xlws.PY(6,1)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A106" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A107" t="str" cm="1">
+        <f t="array" aca="1" ref="A107:C117" ca="1">IFERROR(_FV(A104,"arrayPreview"),_xlfn._DF_Python_str(A104))</f>
+        <v/>
+      </c>
+      <c r="B107" t="str">
+        <f ca="1"/>
+        <v>corrected_feedback</v>
+      </c>
+      <c r="C107" t="str">
+        <f ca="1"/>
+        <v>keywords</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A108">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="B108" t="str">
+        <f ca="1"/>
+        <v>Great product, really satisfied!</v>
+      </c>
+      <c r="C108" t="str">
+        <f ca="1"/>
+        <v>great, product, really, satisfied</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A109">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="B109" t="str">
+        <f ca="1"/>
+        <v>Grate product, very happy with purchase.</v>
+      </c>
+      <c r="C109" t="str">
+        <f ca="1"/>
+        <v>grate, product, happy, purchase</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A110">
+        <f ca="1"/>
+        <v>2</v>
+      </c>
+      <c r="B110" t="str">
+        <f ca="1"/>
+        <v>The item was okay, but delivery was slow.</v>
+      </c>
+      <c r="C110" t="str">
+        <f ca="1"/>
+        <v>item, okay, delivery, slow</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A111">
+        <f ca="1"/>
+        <v>3</v>
+      </c>
+      <c r="B111" t="str">
+        <f ca="1"/>
+        <v>Awesome product, super fast shipping!</v>
+      </c>
+      <c r="C111" t="str">
+        <f ca="1"/>
+        <v>awesome, product, super, fast, shipping</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A112">
+        <f ca="1"/>
+        <v>4</v>
+      </c>
+      <c r="B112" t="str">
+        <f ca="1"/>
+        <v>Poor quality, not satisfied at all.</v>
+      </c>
+      <c r="C112" t="str">
+        <f ca="1"/>
+        <v>poor, quality, satisfied</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A113">
+        <f ca="1"/>
+        <v>5</v>
+      </c>
+      <c r="B113" t="str">
+        <f ca="1"/>
+        <v>Excellent product, will buy again.</v>
+      </c>
+      <c r="C113" t="str">
+        <f ca="1"/>
+        <v>excellent, product, buy</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A114">
+        <f ca="1"/>
+        <v>6</v>
+      </c>
+      <c r="B114" t="str">
+        <f ca="1"/>
+        <v>Product was good, but packaging was bad.</v>
+      </c>
+      <c r="C114" t="str">
+        <f ca="1"/>
+        <v>product, good, packaging, bad</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A115">
+        <f ca="1"/>
+        <v>7</v>
+      </c>
+      <c r="B115" t="str">
+        <f ca="1"/>
+        <v>Great product, highly recommend!</v>
+      </c>
+      <c r="C115" t="str">
+        <f ca="1"/>
+        <v>great, product, highly, recommend</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A116">
+        <f ca="1"/>
+        <v>8</v>
+      </c>
+      <c r="B116" t="str">
+        <f ca="1"/>
+        <v>Decent item, but could be better.</v>
+      </c>
+      <c r="C116" t="str">
+        <f ca="1"/>
+        <v>decent, item, could, better</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A117">
+        <f ca="1"/>
+        <v>9</v>
+      </c>
+      <c r="B117" t="str">
+        <f ca="1"/>
+        <v>Amazing product, love it!</v>
+      </c>
+      <c r="C117" t="str">
+        <f ca="1"/>
+        <v>amazing, product, love</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A120" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A121" t="e" cm="1" vm="9">
+        <f t="array" aca="1" ref="A121" ca="1">_xlfn._xlws.PY(7,1)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A140" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A141" t="e" cm="1" vm="10">
+        <f t="array" aca="1" ref="A141" ca="1">_xlfn._xlws.PY(8,1)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <customProperties>
+    <customPr name="isPythonAnalysisSheet" r:id="rId1"/>
+    <customPr name="lastPythonCell" r:id="rId2"/>
+  </customProperties>
+  <drawing r:id="rId3"/>
+</worksheet>
 </file>
--- a/copilot-python-excel-text-transformation-demo.xlsx
+++ b/copilot-python-excel-text-transformation-demo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeMount\Documents\GitHub\blog-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAE931AA-8424-41C2-B909-0225EBF6E3BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF4ACDA0-DBF5-4443-AC0C-3C65D39D6CBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="18915" windowHeight="12676" xr2:uid="{63CEBFA1-29C0-4AF3-ACEA-1319495CDEB3}"/>
   </bookViews>
@@ -1041,7 +1041,7 @@
   <rv s="2">
     <v>&lt;class 'PIL.PngImagePlugin.PngImageFile'&gt;</v>
     <v>PngImageFile</v>
-    <v>&lt;PIL.PngImagePlugin.PngImageFile image mode=RGBA size=790x427 at 0x7FBE0E1BDB80&gt;</v>
+    <v>&lt;PIL.PngImagePlugin.PngImageFile image mode=RGBA size=790x427 at 0x7F6EF58F87D0&gt;</v>
     <v>24</v>
     <v>2</v>
   </rv>
@@ -1061,7 +1061,7 @@
   <rv s="2">
     <v>&lt;class 'PIL.PngImagePlugin.PngImageFile'&gt;</v>
     <v>PngImageFile</v>
-    <v>&lt;PIL.PngImagePlugin.PngImageFile image mode=RGBA size=790x490 at 0x7FBE0E515EE0&gt;</v>
+    <v>&lt;PIL.PngImagePlugin.PngImageFile image mode=RGBA size=790x490 at 0x7F6EF5A80AA0&gt;</v>
     <v>28</v>
     <v>2</v>
   </rv>
